--- a/LEFO Market Research/Optimization/ppic.xlsx
+++ b/LEFO Market Research/Optimization/ppic.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="jadwal all" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Contoh Kasus" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t xml:space="preserve">minggu</t>
   </si>
@@ -87,6 +88,48 @@
   <si>
     <t xml:space="preserve">Sisa gula yang tidak tergunakan
 menjadi saldo gula minggu IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stok awal
+50 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIC membutuhkan
+400 ton gula
+Sesuai perkiraan kebutuhan bulan depan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIC memesan
+350 ton gula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebutuhan minggu I
+100 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengiriman gula pertama
+50 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengiriman gula kedua
+100 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengiriman gula ketiga
+100 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengiriman gula keempat
+100 ton</t>
   </si>
 </sst>
 </file>
@@ -203,11 +246,11 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -412,4 +455,183 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/LEFO Market Research/Optimization/ppic.xlsx
+++ b/LEFO Market Research/Optimization/ppic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="jadwal all" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t xml:space="preserve">minggu</t>
   </si>
@@ -35,15 +35,25 @@
     <t xml:space="preserve">label</t>
   </si>
   <si>
+    <t xml:space="preserve">W0</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPIC</t>
   </si>
   <si>
-    <t xml:space="preserve">PPIC membuat plan pembelian gula
-Berdasarkan forecast produk
-Berdasarkan perhitungan stok gula di minggu 0</t>
+    <t xml:space="preserve">PPIC membuat plan pembelian gula berdasarkan forecast produk dan berdasarkan perhitungan stok gula di minggu 1, 2, dan 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1</t>
   </si>
   <si>
     <t xml:space="preserve">Pengiriman Gula I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan saldo gula dan kapasitas gudang di sini. Jangan sampai gula yang masuk pada pengiriman I bisa membuat gudang penuh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2</t>
   </si>
   <si>
     <t xml:space="preserve">Pengiriman Gula II</t>
@@ -56,7 +66,16 @@
 siap digunakan untuk produksi bulan berikutnya</t>
   </si>
   <si>
+    <t xml:space="preserve">Perhatikan saldo gula dan kapasitas gudang di sini. Jangan sampai gula yang masuk pada pengiriman II bisa membuat gudang penuh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pengiriman Gula III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan saldo gula dan kapasitas gudang di sini. Jangan sampai gula yang masuk pada pengiriman III bisa membuat gudang penuh.</t>
   </si>
   <si>
     <t xml:space="preserve">Gula I digunakan</t>
@@ -66,7 +85,13 @@
 menjadi saldo gula minggu I</t>
   </si>
   <si>
+    <t xml:space="preserve">W4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pengiriman Gula IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan saldo gula dan kapasitas gudang di sini. Jangan sampai gula yang masuk pada pengiriman IV bisa membuat gudang penuh.</t>
   </si>
   <si>
     <t xml:space="preserve">Gula II digunakan</t>
@@ -76,11 +101,17 @@
 menjadi saldo gula minggu II</t>
   </si>
   <si>
+    <t xml:space="preserve">W5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gula III digunakan</t>
   </si>
   <si>
     <t xml:space="preserve">Sisa gula yang tidak tergunakan
 menjadi saldo gula minggu III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W6</t>
   </si>
   <si>
     <t xml:space="preserve">Gula IV digunakan</t>
@@ -116,20 +147,41 @@
     <t xml:space="preserve">in</t>
   </si>
   <si>
-    <t xml:space="preserve">Pengiriman gula pertama
-50 ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengiriman gula kedua
-100 ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengiriman gula ketiga
-100 ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengiriman gula keempat
-100 ton</t>
+    <t xml:space="preserve">Gula pengiriman pertama
+Ready 50 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gula pengiriman kedua
+Ready 100 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gula pengiriman ketiga
+Ready 100 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gula pengiriman keempat
+Ready 100 ton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gula digunakan
+Pekan I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gula digunakan
+Pekan II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gula digunakan
+Pekan III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gula digunakan
+Pekan IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semua gula habis dipakai
+Tapi untuk kasus lainnya memungkinkan jika masih ada gula tersisa akan dijadikan stok
+untuk bulan dan siklus produksi selanjutnya</t>
   </si>
 </sst>
 </file>
@@ -244,13 +296,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.16"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -266,168 +321,165 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>1.7</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>3.7</v>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,16 +487,66 @@
         <v>4.7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -464,11 +566,14 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.07"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -492,44 +597,44 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,13 +645,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
@@ -554,13 +659,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
@@ -568,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
@@ -582,38 +687,68 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>3.7</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>4.8</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>

--- a/LEFO Market Research/Optimization/ppic.xlsx
+++ b/LEFO Market Research/Optimization/ppic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t xml:space="preserve">minggu</t>
   </si>
@@ -41,7 +41,8 @@
     <t xml:space="preserve">PPIC</t>
   </si>
   <si>
-    <t xml:space="preserve">PPIC membuat plan pembelian gula berdasarkan forecast produk dan berdasarkan perhitungan stok gula di minggu 1, 2, dan 3</t>
+    <t xml:space="preserve">PPIC membuat plan pembelian gula berdasarkan forecast produk pada minggu 3,4,5,6 
+dan berdasarkan perhitungan stok gula di minggu 1 dan 2</t>
   </si>
   <si>
     <t xml:space="preserve">W1</t>
@@ -53,13 +54,16 @@
     <t xml:space="preserve">Perhatikan saldo gula dan kapasitas gudang di sini. Jangan sampai gula yang masuk pada pengiriman I bisa membuat gudang penuh.</t>
   </si>
   <si>
+    <t xml:space="preserve">Produksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudah ada pemakaian gula dari cycle bulan sebelumnya. Misal P1.</t>
+  </si>
+  <si>
     <t xml:space="preserve">W2</t>
   </si>
   <si>
     <t xml:space="preserve">Pengiriman Gula II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produksi</t>
   </si>
   <si>
     <t xml:space="preserve">Stok gula akhir bulan
@@ -67,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Perhatikan saldo gula dan kapasitas gudang di sini. Jangan sampai gula yang masuk pada pengiriman II bisa membuat gudang penuh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudah ada pemakaian gula dari cycle bulan sebelumnya. Misal P2.</t>
   </si>
   <si>
     <t xml:space="preserve">W3</t>
@@ -296,13 +303,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.16"/>
   </cols>
@@ -363,72 +370,72 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>2.8</v>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>2.2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>3.3</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
@@ -436,10 +443,11 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>3.7</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -447,36 +455,35 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>3.3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>3.7</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>4.5</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
@@ -484,10 +491,11 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>4.7</v>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
@@ -495,58 +503,80 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -570,7 +600,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.07"/>
   </cols>
@@ -597,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,10 +638,10 @@
         <v>0.3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,10 +649,10 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,10 +661,10 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,10 +728,10 @@
         <v>1.7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,10 +739,10 @@
         <v>2.7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,10 +751,10 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,10 +762,10 @@
         <v>4.5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -744,10 +774,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
